--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\EPI\Syndromic Surveillance\R Code\DefinitionComparison\TwoDefinitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC3429-D67C-4E99-AFF6-417E650B51D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9962A27-7F12-48CF-9D98-740EDE5B2E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>[The jurisdiction you are applying this query to.]</t>
   </si>
   <si>
-    <t>Maricopa County, AZ</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>[Your organization name.]</t>
   </si>
   <si>
-    <t>Maricopa County Department of Public Health</t>
-  </si>
-  <si>
     <t>[Enter the fields that you want to use to explore in more detail. For each field listed below, you will see a "Top 5" chart showing the top 5 most qrequnetly occuring free-text terms in that field. You must use the name as listed in the NSSP Data Dictionary "ESSENCE API and Data Details" tab under the "Data Details Web Display Name" column</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=az_maricopa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20anxiety%20disorders%20v1&amp;geographySystem=hospitalregion&amp;detector=probrepswitch&amp;timeResolution=daily</t>
   </si>
   <si>
-    <t>sara.chronister@maricopa.gov</t>
-  </si>
-  <si>
     <t>[Your email address.]</t>
   </si>
   <si>
@@ -209,6 +200,15 @@
   </si>
   <si>
     <t>Asthma-related visits</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>Washington State Department of Health</t>
+  </si>
+  <si>
+    <t>Sara.Chronnister@doh.wa.gov</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -263,9 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,39 +589,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -635,33 +632,33 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44256</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>44256</v>
-      </c>
-      <c r="B3" s="5">
-        <v>44348</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>52</v>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -680,65 +677,65 @@
       <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.77734375" customWidth="1"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -750,46 +747,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ABFDD0-4573-4CDB-A01F-D30B440CEE7C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75.77734375" customWidth="1"/>
+    <col min="2" max="5" width="30.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="75.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -805,73 +802,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\EPI\Syndromic Surveillance\R Code\DefinitionComparison\TwoDefinitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC3429-D67C-4E99-AFF6-417E650B51D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E821046C-A1F5-41D2-9A28-8AA960DBF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
     <sheet name="AppliedFields" sheetId="6" r:id="rId2"/>
     <sheet name="DefinitionInformation" sheetId="1" r:id="rId3"/>
+    <sheet name="ManualReviewInformation" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>Syndrome</t>
   </si>
@@ -88,9 +89,6 @@
     <t>[The jurisdiction you are applying this query to.]</t>
   </si>
   <si>
-    <t>Maricopa County, AZ</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -139,12 +137,6 @@
     <t>[Your organization name.]</t>
   </si>
   <si>
-    <t>Maricopa County Department of Public Health</t>
-  </si>
-  <si>
-    <t>[Enter the fields that you want to use to explore in more detail. For each field listed below, you will see a "Top 5" chart showing the top 5 most qrequnetly occuring free-text terms in that field. You must use the name as listed in the NSSP Data Dictionary "ESSENCE API and Data Details" tab under the "Data Details Web Display Name" column</t>
-  </si>
-  <si>
     <t>DoNotUse</t>
   </si>
   <si>
@@ -169,15 +161,9 @@
     <t>(^asthma^,or,^[;/ ]asma^,or,asma^,or,^asthama^,or,^asthma^,or,^asthmia^,or,^bronchospasm^,or,(,(,(,^Airway^,or,^Disease^,),AND,^Reactive),or,(,^Airway^,AND,^Disease^,),),or,^J45^,or,^[;/ ]281239006^,or,^[;/ ]195967001^,or,^[;/ ]708038006^,or,^[;/ ]405944004^,or,^[;/ ]708090002^,or,^[;/ ]56018004^,or,^[;/ ]304527002^,or,^[;/ ]1751000119100^,or,^[;/ ]401000119107^,or,^[;/ ]426979002^,or,^[;/ ]409663006^,or,^[;/ ]266364000^,or,^[;/ ]31387002^,or,^[;/ ]389145006^,or,^[;/ ]442025000^,or,^[;/ ]708093000^,or,^[;/ ]135171000119106^,or,^[;/ ]99031000119107^,or,^[;/ ]135181000119109^,or,^[;/ ]425969006^,or,^[;/ ]370218001^,or,^[;/ ]57546000^,or,^[;/ ]312453004^,or,^[;/ ]707446004^,or,^[;/ ]427295004^,or,^[;/ ]370219009^,or,^[;/ ]233678006^,or,^[;/ ]195949008^,or,^[;/ ]707447008^,or,^[;/ ]707445000^,or,^[;/ ]233683003^,or,^[;/ ]708094006^,or,^[;/ ]55570000^,or,^[;/ ]426656000^,or,^[;/ ]707980005^,or,^[;/ ]390798007^,or,^[;/ ]5281000124103^,or,^[;/ ]370221004^,),ANDNOT,^not asthma^</t>
   </si>
   <si>
-    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=az_maricopa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalregion&amp;detector=probrepswitch&amp;timeResolution=daily</t>
-  </si>
-  <si>
     <t>ILI</t>
   </si>
   <si>
-    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=az_maricopa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalregion&amp;detector=probrepswitch&amp;timeResolution=daily</t>
-  </si>
-  <si>
     <t>(,^fever^,andnot,^denies fev^,andnot,^shot^,andnot,^afeb^,andnot,^no fev^,andnot,^no temp^,or,^chill^,or,^pyrexia^,or,^ febrile^,or,^high temp^,or,^elevated temp^,andnot,^denies any elevated temp^,andnot,^no elevated temp^,or,^feeling hot^,or,^feels hot^,or,^fvr^,andnot,^denies fvr^,andnot,^no fvr^,),and,(,^cough^,andnot,^denies cough^,or,^sore ^th[o|r][a|o][a|r]t^,or,^soreth[o|r][a|o][a|r]t^,or,^strep^,or,^pharyn^,or,^upper resp^,),or,(,^[;/ ]J09^,or,^[;/ ]J10^,or,^[;/ ]J11^,or,^[;/ ]487.[018];^,or,^[;/ ]487[018];^,or,^[;/ ]487.[018],or,^[;/ ]487[018],or,^[;/ ]488.[018][19];^,or,^[;/ ]488[018][19];^,or,^[;/ ]488.[018][19],or,^[;/ ]488[018][19],or,^442696006^,or,^442438000^,or,^6142004^,or,^195878008^,or,^influenza^,andnot,^vaccin^,andnot,^shot^,andnot,^immunizat^,or,^ flu ^,andnot,^shot^,andnot,^stomach^,andnot,^vaccin^,andnot,^immuniza^,or,^flu like^,or,^flulike^,or,^flu symptom^,),andnot,^[;/ ]A08.4^,andnot,^[;/ ]A084^</t>
   </si>
   <si>
@@ -190,12 +176,6 @@
     <t>^[;/ ]300.0[0129]^,or,^[;/]3000[0129][;/]^,or,^[;/ ]300.2[0123]^,or,^[;/]3002[0123][;/]^,or,^[;/ ]300.29^,or,^[;/]30029[;/]^,or,^[;/ ]309.2[48]^,or,^[;/]3092[48][;/]^,or,^[;/ ]313.0^,or,^[;/]3130[;/]^,or,^[;/ ]F40^,or,^[;/ ]F41^,or,^[;/ ]F43.22^,or,^[;/ ]F4322^,or,^[;/ ]F43.23^,or,^[;/ ]F4323^,or,^[;/ ]F93.0^,or,^[;/ ]F930^,or,^[;/ ]197480006[;/ ]^,or,^[;/ ]126943008[;/ ]^,or,^[;/ ]21897009[;/ ]^,or,^[;/ ]69479009[;/ ]^,or,^[;/ ]109006[;/ ]^,or,^[;/ ]61387006[;/ ]^,or,^[;/ ]70997004[;/ ]^,or,^[;/ ]191709001[;/ ]^,or,(,(,(,^an[ie][ei]xty^,or,^ax[ie][ei]ty^,or,^anx[ie][ei]ty^,or,^anx[ei]ty^,or,^an[ei]xty^,or,^ax[ei]ty^,or,^anxious^,),ANDNOT,^denies anxiety^,),or,(,^panic^,ANDNOT,(,^hispanic^,or,^tympanic^,),),or,(,^phobia^,ANDNOT,(,^photophobia^,or,^phonophobia^,or,^photofobia^,or,^phonofobia^,),),)</t>
   </si>
   <si>
-    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=az_maricopa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20anxiety%20disorders%20v1&amp;geographySystem=hospitalregion&amp;detector=probrepswitch&amp;timeResolution=daily</t>
-  </si>
-  <si>
-    <t>sara.chronister@maricopa.gov</t>
-  </si>
-  <si>
     <t>[Your email address.]</t>
   </si>
   <si>
@@ -209,13 +189,456 @@
   </si>
   <si>
     <t>Asthma-related visits</t>
+  </si>
+  <si>
+    <t>ManualReview</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Include Manual Review Validation.]
+If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> edit "ManualReviewInformation" sheet, if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do not edit "ManualReviewInformation". </t>
+    </r>
+  </si>
+  <si>
+    <t>[Review scale - LOW.]</t>
+  </si>
+  <si>
+    <t>[Review scale - HIGH.]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 options for Review scale:
+- 0-1 (0: False Positive, 1: True Positive) 
+- 1-4 (1: Very Unlikely, 2: Unlikely, 3: Likely, 4: Very Likely) 
+- 1-5 (1: Very Unlikely, 2: Unlikely, 3: Uncertain, 4: Likely, 5: Very Likely)</t>
+    </r>
+  </si>
+  <si>
+    <t>StratifiedSample</t>
+  </si>
+  <si>
+    <t>StratifiedVariables</t>
+  </si>
+  <si>
+    <t>ReviewScaleLow</t>
+  </si>
+  <si>
+    <t>ReviewScaleHigh</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>[Your reviewer ID  #.]</t>
+  </si>
+  <si>
+    <t>ReviewerID</t>
+  </si>
+  <si>
+    <t>ReviewerName</t>
+  </si>
+  <si>
+    <t>ReviewerEmail</t>
+  </si>
+  <si>
+    <t>Tyler Bonnell</t>
+  </si>
+  <si>
+    <t>Tyler.Bonnell@doh.wa.gov</t>
+  </si>
+  <si>
+    <t>Lauren Draftz</t>
+  </si>
+  <si>
+    <t>Lauren.Draftz@doh.wa.gov</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Stratified random sample? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(TRUE/FALSE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[Stratified random sample variable.]</t>
+  </si>
+  <si>
+    <t>ReviewDefinitions</t>
+  </si>
+  <si>
+    <t>[Enter the fields that you want to use to explore in more detail. For each field listed below, you will see a "Top 5" chart showing the top 5 most frequently occuring free-text terms in that field. You must use the name as listed in the NSSP Data Dictionary "ESSENCE API and Data Details" tab under the "Data Details Web Display Name" column</t>
+  </si>
+  <si>
+    <t>def1,def2,def3</t>
+  </si>
+  <si>
+    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
+  </si>
+  <si>
+    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20anxiety%20disorders%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>Washington State Department of Health</t>
+  </si>
+  <si>
+    <t>sara.chronister@doh.wa.gov</t>
+  </si>
+  <si>
+    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=wa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily</t>
+  </si>
+  <si>
+    <t>SampleMetric</t>
+  </si>
+  <si>
+    <t>SampleValue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Review sample metric. ]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Options:
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (for number of records)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proportion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (% of records)</t>
+    </r>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Review sample metric value.]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Options:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- if SampleMetric is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> integer
+- if SampleMetric is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proportion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> decimal from 0 to 1 (ex: 0.4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Definition(s) to manually review.]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Options:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> definiton: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> definitions: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def1, def2, def3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,13 +654,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,17 +707,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,85 +1080,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="6">
         <v>44256</v>
       </c>
-      <c r="B3" s="5">
+      <c r="F3" s="6">
         <v>44348</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
+      <c r="G3" s="8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{884226E7-E9D8-418F-B327-4897991A1BF6}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{884226E7-E9D8-418F-B327-4897991A1BF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -677,68 +1179,68 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.77734375" customWidth="1"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -750,131 +1252,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ABFDD0-4573-4CDB-A01F-D30B440CEE7C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="30.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="75.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20anxiety%20disorders%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true" xr:uid="{EF958801-AC3A-4579-97EB-EFBD208E7792}"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true" xr:uid="{64257CB6-E341-4F2F-940D-D1C97E63EFEE}"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=wa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily" xr:uid="{FC030A72-CD8A-4657-8879-0E4A6B2887CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9C94FF-7882-493D-A7ED-509C78885EFA}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="98.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="16" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="I2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{2BD1E75E-64EA-48A1-9E9B-B6E599E2ACB5}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{182E2115-1FB4-4931-99A3-1E5C126E1DD3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E821046C-A1F5-41D2-9A28-8AA960DBF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AAA4F4-0D3D-4195-9E45-BFB7AF0DAEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
     <sheet name="AppliedFields" sheetId="6" r:id="rId2"/>
     <sheet name="DefinitionInformation" sheetId="1" r:id="rId3"/>
-    <sheet name="ManualReviewInformation" sheetId="7" r:id="rId4"/>
+    <sheet name="ValidationReviewInformation" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>Syndrome</t>
   </si>
@@ -191,12 +191,41 @@
     <t>Asthma-related visits</t>
   </si>
   <si>
-    <t>ManualReview</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Include Manual Review Validation.]
-If </t>
+    <t>[Review scale - LOW.]</t>
+  </si>
+  <si>
+    <t>[Review scale - HIGH.]</t>
+  </si>
+  <si>
+    <t>StratifiedSample</t>
+  </si>
+  <si>
+    <t>StratifiedVariables</t>
+  </si>
+  <si>
+    <t>ReviewScaleLow</t>
+  </si>
+  <si>
+    <t>ReviewScaleHigh</t>
+  </si>
+  <si>
+    <t>[Your reviewer ID  #.]</t>
+  </si>
+  <si>
+    <t>ReviewerID</t>
+  </si>
+  <si>
+    <t>ReviewerName</t>
+  </si>
+  <si>
+    <t>Tyler Bonnell</t>
+  </si>
+  <si>
+    <t>Lauren Draftz</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Stratified random sample? </t>
     </r>
     <r>
       <rPr>
@@ -207,124 +236,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> edit "ManualReviewInformation" sheet, if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> do not edit "ManualReviewInformation". </t>
-    </r>
-  </si>
-  <si>
-    <t>[Review scale - LOW.]</t>
-  </si>
-  <si>
-    <t>[Review scale - HIGH.]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 3 options for Review scale:
-- 0-1 (0: False Positive, 1: True Positive) 
-- 1-4 (1: Very Unlikely, 2: Unlikely, 3: Likely, 4: Very Likely) 
-- 1-5 (1: Very Unlikely, 2: Unlikely, 3: Uncertain, 4: Likely, 5: Very Likely)</t>
-    </r>
-  </si>
-  <si>
-    <t>StratifiedSample</t>
-  </si>
-  <si>
-    <t>StratifiedVariables</t>
-  </si>
-  <si>
-    <t>ReviewScaleLow</t>
-  </si>
-  <si>
-    <t>ReviewScaleHigh</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>[Your reviewer ID  #.]</t>
-  </si>
-  <si>
-    <t>ReviewerID</t>
-  </si>
-  <si>
-    <t>ReviewerName</t>
-  </si>
-  <si>
-    <t>ReviewerEmail</t>
-  </si>
-  <si>
-    <t>Tyler Bonnell</t>
-  </si>
-  <si>
-    <t>Tyler.Bonnell@doh.wa.gov</t>
-  </si>
-  <si>
-    <t>Lauren Draftz</t>
-  </si>
-  <si>
-    <t>Lauren.Draftz@doh.wa.gov</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Stratified random sample? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>(TRUE/FALSE)</t>
     </r>
     <r>
@@ -342,13 +253,7 @@
     <t>[Stratified random sample variable.]</t>
   </si>
   <si>
-    <t>ReviewDefinitions</t>
-  </si>
-  <si>
     <t>[Enter the fields that you want to use to explore in more detail. For each field listed below, you will see a "Top 5" chart showing the top 5 most frequently occuring free-text terms in that field. You must use the name as listed in the NSSP Data Dictionary "ESSENCE API and Data Details" tab under the "Data Details Web Display Name" column</t>
-  </si>
-  <si>
-    <t>def1,def2,def3</t>
   </si>
   <si>
     <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
@@ -521,10 +426,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[Definition(s) to manually review.]
-</t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -533,18 +434,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Options:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- A </t>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Here's 3 recommend options for a Review Scale. You may specify a new scale with ReviewScaleLow/High as well if you want. 
+- 0-1 (0: False Positive | 1: True Positive); </t>
     </r>
     <r>
       <rPr>
@@ -555,17 +456,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>single</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> definiton: </t>
+      <t>Default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 1-3 (1: Unlikely | 2:  Uncertain | 3: Likely) 
+- 1-5 (1: Very Unlikely, 2: Unlikely | 3: Uncertain | 4: Likely, 5: Very Likely)</t>
+    </r>
+  </si>
+  <si>
+    <t>CCDDCategory_flat</t>
+  </si>
+  <si>
+    <t>Category_flat</t>
+  </si>
+  <si>
+    <t>Subcategory_flat</t>
+  </si>
+  <si>
+    <t>Procedure_Combo</t>
+  </si>
+  <si>
+    <t>DDParsed</t>
+  </si>
+  <si>
+    <t>Weekday, Month</t>
+  </si>
+  <si>
+    <t>ValidationReview</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Include Validation Review Validation.]
+If </t>
     </r>
     <r>
       <rPr>
@@ -576,18 +506,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>def1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> edit "ValidationReviewInformation" sheet, if </t>
     </r>
     <r>
       <rPr>
@@ -598,39 +527,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Multiple</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> definitions: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>def1, def2, def3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do not edit "ValidationReviewInformation". </t>
     </r>
   </si>
 </sst>
@@ -1082,8 +989,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -1139,7 +1048,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,13 +1056,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E3" s="6">
         <v>44256</v>
@@ -1179,7 +1088,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
@@ -1207,25 +1116,40 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,15 +1176,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ABFDD0-4573-4CDB-A01F-D30B440CEE7C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="30.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="75.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="75.7109375" customWidth="1"/>
   </cols>
@@ -1329,7 +1255,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -1352,7 +1278,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -1375,7 +1301,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1390,142 +1316,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9C94FF-7882-493D-A7ED-509C78885EFA}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="98.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="98.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{2BD1E75E-64EA-48A1-9E9B-B6E599E2ACB5}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{182E2115-1FB4-4931-99A3-1E5C126E1DD3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AAA4F4-0D3D-4195-9E45-BFB7AF0DAEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDC6D5B-77D7-495B-8948-CF0407FCE486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -224,35 +224,6 @@
     <t>Lauren Draftz</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[Stratified random sample? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(TRUE/FALSE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>[Stratified random sample variable.]</t>
-  </si>
-  <si>
     <t>[Enter the fields that you want to use to explore in more detail. For each field listed below, you will see a "Top 5" chart showing the top 5 most frequently occuring free-text terms in that field. You must use the name as listed in the NSSP Data Dictionary "ESSENCE API and Data Details" tab under the "Data Details Web Display Name" column</t>
   </si>
   <si>
@@ -351,7 +322,275 @@
     </r>
   </si>
   <si>
+    <t>CCDDCategory_flat</t>
+  </si>
+  <si>
+    <t>Category_flat</t>
+  </si>
+  <si>
+    <t>Subcategory_flat</t>
+  </si>
+  <si>
+    <t>Procedure_Combo</t>
+  </si>
+  <si>
+    <t>DDParsed</t>
+  </si>
+  <si>
+    <t>ValidationReview</t>
+  </si>
+  <si>
+    <t>Year, Month</t>
+  </si>
+  <si>
     <t>proportion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Include Validation Review.]
+If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> edit "ValidationReviewInformation" sheet, if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do not edit "ValidationReviewInformation". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 recommended options for a Review Scale:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 0-1 (0: False Positive | 1: True Positive); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 1-3 (1: Unlikely | 2:  Uncertain | 3: Likely) 
+- 1-5 (1: Very Unlikely, 2: Unlikely | 3: Uncertain | 4: Likely, 5: Very Likely)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You may also specify a custom scale using ReviewScaleLow and ReviewScaleHigh:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Even length of numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 to 6), an equal number of ratings will be assigned to "True Positive" and "False Positive" (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1,2,3: False Positive | 4,5,6: True Positive).
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Odd length of numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 to 7), the median will be assigned to "Uncertain" and an equal number of ratings will subsequently be assigned to "True Positive" and "False Positive" (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1,2,3: False Positive | 4: Uncertain | 5,6,7: True Positive).</t>
+    </r>
   </si>
   <si>
     <r>
@@ -421,10 +660,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> decimal from 0 to 1 (ex: 0.4)</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> decimal from 0 to 1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Stratified random sample variable.]
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -434,18 +698,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Here's 3 recommend options for a Review Scale. You may specify a new scale with ReviewScaleLow/High as well if you want. 
-- 0-1 (0: False Positive | 1: True Positive); </t>
+      <t xml:space="preserve">Options: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single or in combination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -456,46 +740,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
-- 1-3 (1: Unlikely | 2:  Uncertain | 3: Likely) 
-- 1-5 (1: Very Unlikely, 2: Unlikely | 3: Uncertain | 4: Likely, 5: Very Likely)</t>
-    </r>
-  </si>
-  <si>
-    <t>CCDDCategory_flat</t>
-  </si>
-  <si>
-    <t>Category_flat</t>
-  </si>
-  <si>
-    <t>Subcategory_flat</t>
-  </si>
-  <si>
-    <t>Procedure_Combo</t>
-  </si>
-  <si>
-    <t>DDParsed</t>
-  </si>
-  <si>
-    <t>Weekday, Month</t>
-  </si>
-  <si>
-    <t>ValidationReview</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Include Validation Review Validation.]
-If </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Year, Month, Week, Weekday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Stratified random sample?
+</t>
     </r>
     <r>
       <rPr>
@@ -506,38 +768,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> edit "ValidationReviewInformation" sheet, if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> do not edit "ValidationReviewInformation". </t>
+      <t>Options:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- TRUE
+- FALSE</t>
     </r>
   </si>
 </sst>
@@ -545,7 +788,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +806,31 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -989,10 +1257,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -1048,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,13 +1324,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6">
         <v>44256</v>
@@ -1087,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C921F-19C2-4CBC-9726-8946A726EC05}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1366,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
@@ -1117,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1445,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1523,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -1278,7 +1546,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -1301,7 +1569,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1320,23 +1588,23 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="98.85546875" customWidth="1"/>
+    <col min="9" max="9" width="103.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
@@ -1344,16 +1612,16 @@
         <v>28</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>51</v>
@@ -1362,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1373,10 +1641,10 @@
         <v>59</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>53</v>
@@ -1399,7 +1667,7 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D3" s="9">
         <v>0.25</v>
@@ -1408,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDC6D5B-77D7-495B-8948-CF0407FCE486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CFC3A-2042-495A-A0DF-CEEE5200007A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Syndrome</t>
   </si>
@@ -209,9 +209,6 @@
     <t>ReviewScaleHigh</t>
   </si>
   <si>
-    <t>[Your reviewer ID  #.]</t>
-  </si>
-  <si>
     <t>ReviewerID</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>Tyler Bonnell</t>
-  </si>
-  <si>
-    <t>Lauren Draftz</t>
   </si>
   <si>
     <t>[Enter the fields that you want to use to explore in more detail. For each field listed below, you will see a "Top 5" chart showing the top 5 most frequently occuring free-text terms in that field. You must use the name as listed in the NSSP Data Dictionary "ESSENCE API and Data Details" tab under the "Data Details Web Display Name" column</t>
@@ -343,12 +337,9 @@
     <t>Year, Month</t>
   </si>
   <si>
-    <t>proportion</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Include Validation Review.]
-If </t>
+    <r>
+      <t xml:space="preserve">[Review sample metric value.]
+</t>
     </r>
     <r>
       <rPr>
@@ -359,17 +350,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> edit "ValidationReviewInformation" sheet, if </t>
+      <t xml:space="preserve">Options:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- if SampleMetric is </t>
     </r>
     <r>
       <rPr>
@@ -380,18 +372,163 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> do not edit "ValidationReviewInformation". </t>
-    </r>
+      <t>n:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> integer
+- if SampleMetric is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proportion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> decimal from 0 to 1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Stratified random sample variable.]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Options: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single or in combination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Year, Month, Week, Weekday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Stratified random sample?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Options:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- TRUE
+- FALSE</t>
+    </r>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <r>
@@ -594,7 +731,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[Review sample metric value.]
+      <t xml:space="preserve">[Your reviewer ID  #.]
 </t>
     </r>
     <r>
@@ -606,18 +743,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Options:
+      <t>Options:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Add as many reviewers as you need.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[Your name.]
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- if SampleMetric is </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Include Validation Review.]
+If </t>
     </r>
     <r>
       <rPr>
@@ -628,18 +774,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>n:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> integer
-- if SampleMetric is </t>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> edit the "ValidationReviewInformation" Excel sheet, if </t>
     </r>
     <r>
       <rPr>
@@ -650,137 +795,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>proportion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> decimal from 0 to 1 (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ex:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Stratified random sample variable.]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Options: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>single or in combination</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Year, Month, Week, Weekday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Stratified random sample?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Options:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- TRUE
-- FALSE</t>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> there is no need to edit "ValidationReviewInformation". </t>
     </r>
   </si>
 </sst>
@@ -871,12 +896,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -885,7 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -907,24 +928,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -939,6 +944,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1257,88 +1283,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>77</v>
+      <c r="G2" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4">
         <v>44256</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>44348</v>
       </c>
-      <c r="G3" s="8" t="b">
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1355,83 +1381,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C921F-19C2-4CBC-9726-8946A726EC05}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>76</v>
+      <c r="B3" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1446,130 +1473,130 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="255" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>64</v>
+      <c r="G3" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>63</v>
+      <c r="G4" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>68</v>
+      <c r="G5" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1584,123 +1611,116 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9C94FF-7882-493D-A7ED-509C78885EFA}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="103.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" customWidth="1"/>
+    <col min="9" max="9" width="103.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="7">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
+      <c r="C4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CFC3A-2042-495A-A0DF-CEEE5200007A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D33EC9-524D-4D81-86FD-80139A721A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -215,9 +215,6 @@
     <t>ReviewerName</t>
   </si>
   <si>
-    <t>Tyler Bonnell</t>
-  </si>
-  <si>
     <t>[Enter the fields that you want to use to explore in more detail. For each field listed below, you will see a "Top 5" chart showing the top 5 most frequently occuring free-text terms in that field. You must use the name as listed in the NSSP Data Dictionary "ESSENCE API and Data Details" tab under the "Data Details Web Display Name" column</t>
   </si>
   <si>
@@ -497,38 +494,6 @@
       </rPr>
       <t>- Year, Month, Week, Weekday</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Stratified random sample?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Options:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- TRUE
-- FALSE</t>
-    </r>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <r>
@@ -807,6 +772,41 @@
       </rPr>
       <t xml:space="preserve"> there is no need to edit "ValidationReviewInformation". </t>
     </r>
+  </si>
+  <si>
+    <t>Tyler Bonnell</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Stratified random sample?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Options: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(all caps) 
+- TRUE
+- FALSE</t>
+    </r>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
@@ -1319,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1350,13 +1350,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E3" s="4">
         <v>44256</v>
@@ -1393,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>34</v>
@@ -1412,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1550,7 +1550,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1613,9 +1613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9C94FF-7882-493D-A7ED-509C78885EFA}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,22 +1633,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>51</v>
@@ -1657,7 +1657,7 @@
         <v>52</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1668,10 +1668,10 @@
         <v>58</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>53</v>
@@ -1695,22 +1695,22 @@
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D3" s="7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
       </c>
       <c r="H3" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C4" s="19"/>
     </row>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D33EC9-524D-4D81-86FD-80139A721A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3942AA-5E4E-4538-B174-51EE4827A639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -1283,10 +1283,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1359,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="4">
-        <v>44256</v>
+        <v>44331</v>
       </c>
       <c r="F3" s="4">
         <v>44348</v>
@@ -1613,18 +1613,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9C94FF-7882-493D-A7ED-509C78885EFA}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="16" style="5" customWidth="1"/>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3942AA-5E4E-4538-B174-51EE4827A639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057F0CE-CA5D-400C-9743-B6BCBCB94F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
@@ -242,77 +242,6 @@
     <t>SampleValue</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[Review sample metric. ]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Options:
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (for number of records)
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>proportion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (% of records)</t>
-    </r>
-  </si>
-  <si>
     <t>CCDDCategory_flat</t>
   </si>
   <si>
@@ -806,7 +735,78 @@
     </r>
   </si>
   <si>
-    <t>n</t>
+    <r>
+      <t xml:space="preserve">[Review sample metric. ]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Options:
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (for number of records)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proportion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (% of records)</t>
+    </r>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1359,10 +1359,10 @@
         <v>63</v>
       </c>
       <c r="E3" s="4">
-        <v>44331</v>
+        <v>44986</v>
       </c>
       <c r="F3" s="4">
-        <v>44348</v>
+        <v>45078</v>
       </c>
       <c r="G3" s="6" t="b">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,9 +1613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9C94FF-7882-493D-A7ED-509C78885EFA}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,22 +1633,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>51</v>
@@ -1657,7 +1657,7 @@
         <v>52</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="19"/>
     </row>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057F0CE-CA5D-400C-9743-B6BCBCB94F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65966A5A-63D0-4ECF-BBC2-8059BD324278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>Syndrome</t>
   </si>
@@ -807,6 +807,64 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Deduplicate Discharge Diagnoses]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Options:
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TRUE/FALSE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Applies to:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DischargeDiagnosis
+- Diagnosis_Combo
+- DDParsed
+- CCDD
+- CCDDParsed</t>
+    </r>
+  </si>
+  <si>
+    <t>DeduplicateDDx</t>
   </si>
 </sst>
 </file>
@@ -985,9 +1043,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1025,7 +1083,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1131,7 +1189,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1273,7 +1331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1283,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
@@ -1611,27 +1669,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9C94FF-7882-493D-A7ED-509C78885EFA}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16" style="5" customWidth="1"/>
-    <col min="9" max="9" width="103.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17" style="5" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16" style="5" customWidth="1"/>
+    <col min="10" max="10" width="103.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1639,28 +1698,31 @@
         <v>79</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
@@ -1668,59 +1730,65 @@
         <v>58</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>100</v>
       </c>
-      <c r="E3" s="5" t="b">
+      <c r="F3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65966A5A-63D0-4ECF-BBC2-8059BD324278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454BD54-FCB4-43F2-9754-C471ABCEE819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
@@ -1673,7 +1673,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454BD54-FCB4-43F2-9754-C471ABCEE819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30008613-FD9B-4907-B10B-C10AB8F48258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
-    <sheet name="AppliedFields" sheetId="6" r:id="rId2"/>
+    <sheet name="SelectFields" sheetId="9" r:id="rId2"/>
     <sheet name="DefinitionInformation" sheetId="1" r:id="rId3"/>
     <sheet name="ValidationReviewInformation" sheetId="7" r:id="rId4"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="120">
   <si>
     <t>Syndrome</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Structure</t>
   </si>
   <si>
-    <t>Chief Complaint History, Discharge Diagnosis or Admit Reason Combo</t>
-  </si>
-  <si>
     <t>[Syndrome name from ESSENCE]</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t>[The jurisdiction you are applying this query to.]</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>DischargeDiagnosis</t>
-  </si>
-  <si>
     <t>Diagnosis_Combo</t>
   </si>
   <si>
@@ -137,12 +128,6 @@
     <t>[Your organization name.]</t>
   </si>
   <si>
-    <t>DoNotUse</t>
-  </si>
-  <si>
-    <t>[For any fields you do not want to see a "Top 5 Terms" chart, cut and paste the name into this column so it will be excluded. If a field appears here, it will not be included.]</t>
-  </si>
-  <si>
     <t>[Abbreviated name for the definition. This is up to you as the author, so choose something that will make sense and be recogniable to you in your report.]</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
   </si>
   <si>
     <t>ReviewerName</t>
-  </si>
-  <si>
-    <t>[Enter the fields that you want to use to explore in more detail. For each field listed below, you will see a "Top 5" chart showing the top 5 most frequently occuring free-text terms in that field. You must use the name as listed in the NSSP Data Dictionary "ESSENCE API and Data Details" tab under the "Data Details Web Display Name" column</t>
   </si>
   <si>
     <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
@@ -865,6 +847,123 @@
   </si>
   <si>
     <t>DeduplicateDDx</t>
+  </si>
+  <si>
+    <t>C_BioSense_ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CCDDParsed</t>
+  </si>
+  <si>
+    <t>Procedure_Code</t>
+  </si>
+  <si>
+    <t>Race_flat</t>
+  </si>
+  <si>
+    <t>Ethnicity_flat</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>HospitalRegion</t>
+  </si>
+  <si>
+    <t>MinutesFromVisitToDischarge</t>
+  </si>
+  <si>
+    <t>HasBeenE</t>
+  </si>
+  <si>
+    <t>HasBeenI</t>
+  </si>
+  <si>
+    <t>C_Death</t>
+  </si>
+  <si>
+    <t>DispositionCategory</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ESSENCEfields</t>
+  </si>
+  <si>
+    <t>[Update this column to Yes if you would like to have the field included in the outputs for manual review.]</t>
+  </si>
+  <si>
+    <t>[Update this column to Yes if you would like to have the field included in the "Top 5 Term" text analysis output.]</t>
+  </si>
+  <si>
+    <t>[This list contains a common set of fields from the data details results that may be helpful in evaluating the results from a syndrome definition. To add additional fields, consult the "ESSENCE API and Data Details" tab of the NSSP Data Dictionary.]</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Not eligible for free text analysis</t>
+  </si>
+  <si>
+    <t>[Do not edit this column.]</t>
+  </si>
+  <si>
+    <t>Redundancy: ChiefComplaintOrig is found in ChiefComplaintUpdates</t>
+  </si>
+  <si>
+    <t>Redundancy: ChiefComplaintParsed is found in both CCDD and CCDDParsed.</t>
+  </si>
+  <si>
+    <t>Redundancy: DischargeDiagnosisParsed is found in CCDDParsed</t>
+  </si>
+  <si>
+    <t>Redundancy: Recommended to use CCDDParsed because of the standardization of the discharge diagnoses, CC segment is the same</t>
+  </si>
+  <si>
+    <t>ClinicalImpression</t>
+  </si>
+  <si>
+    <t>Initial_Pulse_Oximetry_Calc</t>
+  </si>
+  <si>
+    <t>Initial_Temp_Calc</t>
+  </si>
+  <si>
+    <t>IncludeForValidationReview</t>
+  </si>
+  <si>
+    <t>IncludeForTextAnalysis</t>
+  </si>
+  <si>
+    <t>c_race</t>
+  </si>
+  <si>
+    <t>c_ethnicity</t>
+  </si>
+  <si>
+    <t>Chief Complaint History, Discharge Diagnosis, or Admit Reason Combo</t>
+  </si>
+  <si>
+    <t>DischargeDiagnosis</t>
+  </si>
+  <si>
+    <t>Redundancy: DischargeDiagnosis is found in CCDDParsed</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1128,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1344,7 +1464,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,62 +1479,62 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4">
         <v>44986</v>
@@ -1436,91 +1556,499 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C921F-19C2-4CBC-9726-8946A726EC05}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C00C859-E9BD-4CEE-A4ED-0B7D92D4D6F1}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="6" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="133" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:C1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1531,7 +2059,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,33 +2075,33 @@
     <row r="1" spans="1:7" s="11" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>1</v>
@@ -1585,76 +2113,76 @@
         <v>3</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +2199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9C94FF-7882-493D-A7ED-509C78885EFA}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
@@ -1692,63 +2220,63 @@
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J2" s="18"/>
     </row>
@@ -1757,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E3" s="7">
         <v>100</v>
@@ -1772,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -1786,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D4" s="19"/>
     </row>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30008613-FD9B-4907-B10B-C10AB8F48258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA0E8E-7147-4EE2-965C-B729559E07B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>Syndrome</t>
   </si>
@@ -152,24 +152,12 @@
     <t>(,^fever^,andnot,^denies fev^,andnot,^shot^,andnot,^afeb^,andnot,^no fev^,andnot,^no temp^,or,^chill^,or,^pyrexia^,or,^ febrile^,or,^high temp^,or,^elevated temp^,andnot,^denies any elevated temp^,andnot,^no elevated temp^,or,^feeling hot^,or,^feels hot^,or,^fvr^,andnot,^denies fvr^,andnot,^no fvr^,),and,(,^cough^,andnot,^denies cough^,or,^sore ^th[o|r][a|o][a|r]t^,or,^soreth[o|r][a|o][a|r]t^,or,^strep^,or,^pharyn^,or,^upper resp^,),or,(,^[;/ ]J09^,or,^[;/ ]J10^,or,^[;/ ]J11^,or,^[;/ ]487.[018];^,or,^[;/ ]487[018];^,or,^[;/ ]487.[018],or,^[;/ ]487[018],or,^[;/ ]488.[018][19];^,or,^[;/ ]488[018][19];^,or,^[;/ ]488.[018][19],or,^[;/ ]488[018][19],or,^442696006^,or,^442438000^,or,^6142004^,or,^195878008^,or,^influenza^,andnot,^vaccin^,andnot,^shot^,andnot,^immunizat^,or,^ flu ^,andnot,^shot^,andnot,^stomach^,andnot,^vaccin^,andnot,^immuniza^,or,^flu like^,or,^flulike^,or,^flu symptom^,),andnot,^[;/ ]A08.4^,andnot,^[;/ ]A084^</t>
   </si>
   <si>
-    <t>Anxiety</t>
-  </si>
-  <si>
-    <t>ANX</t>
-  </si>
-  <si>
-    <t>^[;/ ]300.0[0129]^,or,^[;/]3000[0129][;/]^,or,^[;/ ]300.2[0123]^,or,^[;/]3002[0123][;/]^,or,^[;/ ]300.29^,or,^[;/]30029[;/]^,or,^[;/ ]309.2[48]^,or,^[;/]3092[48][;/]^,or,^[;/ ]313.0^,or,^[;/]3130[;/]^,or,^[;/ ]F40^,or,^[;/ ]F41^,or,^[;/ ]F43.22^,or,^[;/ ]F4322^,or,^[;/ ]F43.23^,or,^[;/ ]F4323^,or,^[;/ ]F93.0^,or,^[;/ ]F930^,or,^[;/ ]197480006[;/ ]^,or,^[;/ ]126943008[;/ ]^,or,^[;/ ]21897009[;/ ]^,or,^[;/ ]69479009[;/ ]^,or,^[;/ ]109006[;/ ]^,or,^[;/ ]61387006[;/ ]^,or,^[;/ ]70997004[;/ ]^,or,^[;/ ]191709001[;/ ]^,or,(,(,(,^an[ie][ei]xty^,or,^ax[ie][ei]ty^,or,^anx[ie][ei]ty^,or,^anx[ei]ty^,or,^an[ei]xty^,or,^ax[ei]ty^,or,^anxious^,),ANDNOT,^denies anxiety^,),or,(,^panic^,ANDNOT,(,^hispanic^,or,^tympanic^,),),or,(,^phobia^,ANDNOT,(,^photophobia^,or,^phonophobia^,or,^photofobia^,or,^phonofobia^,),),)</t>
-  </si>
-  <si>
     <t>[Your email address.]</t>
   </si>
   <si>
     <t>POCEmail</t>
   </si>
   <si>
-    <t>The purpose of this query is to identify visits among persons experiencing mental illness in emergency departments and ambulatory healthcare settings. This includes capturing visits where there are acute mental health crises (i.e., the sole or primary reason for the visit is only related to mental health) as well as visits where mental health conditions are present (defined as coded in the discharge diagnosis or mentioned in the chief complaint text) but may not be the sole reason for the visit.</t>
-  </si>
-  <si>
     <t>CDC ILI definition (does not address coronavirus)</t>
   </si>
   <si>
@@ -203,16 +191,10 @@
     <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
   </si>
   <si>
-    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20anxiety%20disorders%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
-  </si>
-  <si>
     <t>Washington State</t>
   </si>
   <si>
     <t>Washington State Department of Health</t>
-  </si>
-  <si>
-    <t>sara.chronister@doh.wa.gov</t>
   </si>
   <si>
     <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=wa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily</t>
@@ -964,6 +946,28 @@
   </si>
   <si>
     <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Air Quality-related Respiratory Illness v1</t>
+  </si>
+  <si>
+    <t>AIRQUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify emergency department and ambulatory care visits for respiratory illnesses associated with poor air quality. Definition includes chief complaint terms and diagnosis codes for acute bronchitis, emphysema, chronic obstructive airway disease, chronic obstructive lung disease, chronic obstructive pulmonary disease,  asthma, bronchasthma, reactive airway disease, acute respiratory distress syndrome, difficulty breathing, chest tightness, dyspnea, shortness of breath and wheezing. Using this query in combination with air quality trends may further assist with surveillance efforts. Developed by the NSSP Community of Practice in collaboration with Council of State and Territorial Epidemiologists in collaboration and the National Center for Environmental Health.
+</t>
+  </si>
+  <si>
+    <t>(,^[;/ ]J20^,or,^[;/ ]J4[345]^,or,^[;/ ]J80^,or,^[;/ ]R06.0^,or,^[;/ ]R060^,or,^[;/ ]R06.02^,or,^[;/ ]R0602^,or,^[;/ ]466.0^,or,^[;/ ]4660[;/ ]^,or,^[;/]49[236][;/]^,or,^[;/ ]518.82^,or,^[;/ ]51882[;/ ]^,or,^[;/ ]786.0[579]^,or,^[;/ ]7860[579][;/ ]^,or,^[;/ ]10509002[;/ ]^,or,^[;/ ]49158009[;/ ]^,or,^[;/ ]17569003[;/ ]^,or,^[;/ ]789677001[;/ ]^,or,^[;/ ]195967001[;/ ]^,or,^[;/ ]373895009[;/ ]^,or,^[;/ ]56018004[;/ ]^,or,^acute bronchitis^,or,^emphysema^,or,!COPD!,or,^chronic obstructive airway disease^,or,^chronic obstructive lung disease^,or,^chronic obstructive pulmonary disease^,or,^[;/ ]J45^,or,^asthma^,or,^bronchasthma^,or,!RAD!,or,^reactive airway disease^,or,^[;/ ]J80^,or,^difficulty breath^,or,^breathing problem^,or,^chest tightness^,or,^chronic cough^,or,^dyspnea^,or,^shortness of breath^,or,(,^wheez^,andnot,(,^cough^,or,^cold^,or,^congestion^,),),andnot,(,^[;/ ]R50.9^,or,^[;/ ]R509^,or,^[;/ ]780.60^,or,^[;/ ]78060[;/ ]^,or,^febrile^,or,^fever^,or,^high temp^,),)</t>
+  </si>
+  <si>
+    <t>https://essence2.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?datasource=va_hosp&amp;startDate=12May2024&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=13May2024&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=air%20quality-related%20respiratory%20illness%20v1&amp;geographySystem=hospital&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
+  </si>
+  <si>
+    <t>Chief Complaint History, Discharge Diagnosis</t>
+  </si>
+  <si>
+    <t>sara.chronister@doh.wa.gov</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1465,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" sqref="A1:B2"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1486,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>15</v>
@@ -1497,7 +1501,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1509,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
@@ -1520,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1528,30 +1532,27 @@
         <v>27</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4">
-        <v>44986</v>
+        <v>45200</v>
       </c>
       <c r="F3" s="4">
-        <v>45078</v>
+        <v>45291</v>
       </c>
       <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{884226E7-E9D8-418F-B327-4897991A1BF6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1559,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C00C859-E9BD-4CEE-A4ED-0B7D92D4D6F1}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,69 +1572,69 @@
   <sheetData>
     <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,10 +1642,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,10 +1653,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,10 +1664,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,300 +1675,300 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
         <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
         <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
         <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
         <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
         <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
         <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
         <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
         <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
         <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
         <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
         <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
         <v>97</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
         <v>97</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1975,13 +1976,13 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,13 +1990,13 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,41 +2004,41 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2057,9 +2058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ABFDD0-4573-4CDB-A01F-D30B440CEE7C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,27 +2117,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -2150,16 +2151,16 @@
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -2173,23 +2174,22 @@
         <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20anxiety%20disorders%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true" xr:uid="{EF958801-AC3A-4579-97EB-EFBD208E7792}"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true" xr:uid="{64257CB6-E341-4F2F-940D-D1C97E63EFEE}"/>
-    <hyperlink ref="G5" r:id="rId3" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=wa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily" xr:uid="{FC030A72-CD8A-4657-8879-0E4A6B2887CF}"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true" xr:uid="{64257CB6-E341-4F2F-940D-D1C97E63EFEE}"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=wa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily" xr:uid="{FC030A72-CD8A-4657-8879-0E4A6B2887CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2201,7 +2201,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,63 +2220,63 @@
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J2" s="18"/>
     </row>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E3" s="7">
         <v>100</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" s="19"/>
     </row>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA0E8E-7147-4EE2-965C-B729559E07B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34CEE8A-ABFD-41FC-B748-111989B044E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
@@ -667,9 +667,6 @@
     </r>
   </si>
   <si>
-    <t>Tyler Bonnell</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">[Stratified random sample?
 </t>
@@ -968,6 +965,9 @@
   </si>
   <si>
     <t>sara.chronister@doh.wa.gov</t>
+  </si>
+  <si>
+    <t>Tyler Bonnell</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1468,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1532,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>51</v>
@@ -1541,7 +1541,7 @@
         <v>52</v>
       </c>
       <c r="E3" s="4">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F3" s="4">
         <v>45291</v>
@@ -1572,69 +1572,69 @@
   <sheetData>
     <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="D2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,10 +1642,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,10 +1653,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,10 +1664,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,32 +1675,32 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,10 +1708,10 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,10 +1719,10 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,10 +1730,10 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,234 +1741,234 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1976,13 +1976,13 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,13 +1990,13 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2004,13 +2004,13 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2018,27 +2018,27 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
         <v>111</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2122,22 +2122,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>40</v>
@@ -2174,7 +2174,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>41</v>
@@ -2201,7 +2201,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,16 +2226,16 @@
         <v>67</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>64</v>
@@ -2258,7 +2258,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>54</v>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="7">
         <v>100</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="D4" s="19"/>
     </row>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJB0303\LocalSave\R\GitHub\syndrome-definition-evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R Work Folder\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34CEE8A-ABFD-41FC-B748-111989B044E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274FAF76-07FB-4016-9F01-7457AAE86B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>defX</t>
   </si>
   <si>
-    <t>[What fields does this query apply to? Copy and paste from the Definition Information popup or enter manually]</t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
@@ -888,9 +885,6 @@
     <t>[Update this column to Yes if you would like to have the field included in the "Top 5 Term" text analysis output.]</t>
   </si>
   <si>
-    <t>[This list contains a common set of fields from the data details results that may be helpful in evaluating the results from a syndrome definition. To add additional fields, consult the "ESSENCE API and Data Details" tab of the NSSP Data Dictionary.]</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -931,9 +925,6 @@
   </si>
   <si>
     <t>c_ethnicity</t>
-  </si>
-  <si>
-    <t>Chief Complaint History, Discharge Diagnosis, or Admit Reason Combo</t>
   </si>
   <si>
     <t>DischargeDiagnosis</t>
@@ -961,13 +952,22 @@
     <t>https://essence2.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?datasource=va_hosp&amp;startDate=12May2024&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=13May2024&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=air%20quality-related%20respiratory%20illness%20v1&amp;geographySystem=hospital&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
   </si>
   <si>
-    <t>Chief Complaint History, Discharge Diagnosis</t>
-  </si>
-  <si>
     <t>sara.chronister@doh.wa.gov</t>
   </si>
   <si>
     <t>Tyler Bonnell</t>
+  </si>
+  <si>
+    <t>ChiefComplaintUpdates, DischargeDiagnosis</t>
+  </si>
+  <si>
+    <t>ChiefComplaintUpdates, DischargeDiagnosis, Admit_Reason_Combo</t>
+  </si>
+  <si>
+    <t>[What fields does this query apply to? Copy and paste from the Definition Information popup or enter manually. Must use API syntax, refer to Data Dictionary as needed.]</t>
+  </si>
+  <si>
+    <t>[This list contains a common set of fields from the data details results that may be helpful in evaluating the results from a syndrome definition. To add additional fields, consult the "ESSENCE API and Data Details" tab of the NSSP Data Dictionary to use the correct API syntax.]</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B277CF-9876-4850-BAAE-A2FD71D015E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
@@ -1483,62 +1483,62 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="4">
         <v>45231</v>
@@ -1560,485 +1560,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C00C859-E9BD-4CEE-A4ED-0B7D92D4D6F1}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="133" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2061,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,22 +2074,22 @@
     <col min="7" max="7" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>8</v>
@@ -2102,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>1</v>
@@ -2122,22 +2123,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -2145,45 +2146,45 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2220,63 +2221,63 @@
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="C2" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="J2" s="18"/>
     </row>
@@ -2285,13 +2286,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="7">
         <v>100</v>
@@ -2300,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -2314,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" s="19"/>
     </row>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R Work Folder\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274FAF76-07FB-4016-9F01-7457AAE86B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA974B0F-F2E7-40BA-BFFD-BC5DB58DEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="-21600" yWindow="3000" windowWidth="19785" windowHeight="11385" activeTab="2" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -964,10 +964,10 @@
     <t>ChiefComplaintUpdates, DischargeDiagnosis, Admit_Reason_Combo</t>
   </si>
   <si>
-    <t>[What fields does this query apply to? Copy and paste from the Definition Information popup or enter manually. Must use API syntax, refer to Data Dictionary as needed.]</t>
-  </si>
-  <si>
     <t>[This list contains a common set of fields from the data details results that may be helpful in evaluating the results from a syndrome definition. To add additional fields, consult the "ESSENCE API and Data Details" tab of the NSSP Data Dictionary to use the correct API syntax.]</t>
+  </si>
+  <si>
+    <t>[What fields does this query apply to? Copy and paste from the SelectFields tab or enter manually. Must use API syntax, refer to Data Dictionary as needed.]</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C00C859-E9BD-4CEE-A4ED-0B7D92D4D6F1}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1573,7 +1573,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>91</v>
@@ -2059,9 +2059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ABFDD0-4573-4CDB-A01F-D30B440CEE7C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>30</v>

--- a/DefinitionInformationTable.xlsx
+++ b/DefinitionInformationTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R Work Folder\syndrome-definition-evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHDTJB\Documents\LocalSave\Code\R\GitHub\syndrome-definition-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA974B0F-F2E7-40BA-BFFD-BC5DB58DEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BFEB25-9ECF-4C16-B088-FF331E107AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="3000" windowWidth="19785" windowHeight="11385" activeTab="2" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{D30C9C86-3D98-4204-9FB5-C398A54A23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -137,30 +137,12 @@
     <t>def3</t>
   </si>
   <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>(^asthma^,or,^[;/ ]asma^,or,asma^,or,^asthama^,or,^asthma^,or,^asthmia^,or,^bronchospasm^,or,(,(,(,^Airway^,or,^Disease^,),AND,^Reactive),or,(,^Airway^,AND,^Disease^,),),or,^J45^,or,^[;/ ]281239006^,or,^[;/ ]195967001^,or,^[;/ ]708038006^,or,^[;/ ]405944004^,or,^[;/ ]708090002^,or,^[;/ ]56018004^,or,^[;/ ]304527002^,or,^[;/ ]1751000119100^,or,^[;/ ]401000119107^,or,^[;/ ]426979002^,or,^[;/ ]409663006^,or,^[;/ ]266364000^,or,^[;/ ]31387002^,or,^[;/ ]389145006^,or,^[;/ ]442025000^,or,^[;/ ]708093000^,or,^[;/ ]135171000119106^,or,^[;/ ]99031000119107^,or,^[;/ ]135181000119109^,or,^[;/ ]425969006^,or,^[;/ ]370218001^,or,^[;/ ]57546000^,or,^[;/ ]312453004^,or,^[;/ ]707446004^,or,^[;/ ]427295004^,or,^[;/ ]370219009^,or,^[;/ ]233678006^,or,^[;/ ]195949008^,or,^[;/ ]707447008^,or,^[;/ ]707445000^,or,^[;/ ]233683003^,or,^[;/ ]708094006^,or,^[;/ ]55570000^,or,^[;/ ]426656000^,or,^[;/ ]707980005^,or,^[;/ ]390798007^,or,^[;/ ]5281000124103^,or,^[;/ ]370221004^,),ANDNOT,^not asthma^</t>
-  </si>
-  <si>
-    <t>ILI</t>
-  </si>
-  <si>
-    <t>(,^fever^,andnot,^denies fev^,andnot,^shot^,andnot,^afeb^,andnot,^no fev^,andnot,^no temp^,or,^chill^,or,^pyrexia^,or,^ febrile^,or,^high temp^,or,^elevated temp^,andnot,^denies any elevated temp^,andnot,^no elevated temp^,or,^feeling hot^,or,^feels hot^,or,^fvr^,andnot,^denies fvr^,andnot,^no fvr^,),and,(,^cough^,andnot,^denies cough^,or,^sore ^th[o|r][a|o][a|r]t^,or,^soreth[o|r][a|o][a|r]t^,or,^strep^,or,^pharyn^,or,^upper resp^,),or,(,^[;/ ]J09^,or,^[;/ ]J10^,or,^[;/ ]J11^,or,^[;/ ]487.[018];^,or,^[;/ ]487[018];^,or,^[;/ ]487.[018],or,^[;/ ]487[018],or,^[;/ ]488.[018][19];^,or,^[;/ ]488[018][19];^,or,^[;/ ]488.[018][19],or,^[;/ ]488[018][19],or,^442696006^,or,^442438000^,or,^6142004^,or,^195878008^,or,^influenza^,andnot,^vaccin^,andnot,^shot^,andnot,^immunizat^,or,^ flu ^,andnot,^shot^,andnot,^stomach^,andnot,^vaccin^,andnot,^immuniza^,or,^flu like^,or,^flulike^,or,^flu symptom^,),andnot,^[;/ ]A08.4^,andnot,^[;/ ]A084^</t>
-  </si>
-  <si>
     <t>[Your email address.]</t>
   </si>
   <si>
     <t>POCEmail</t>
   </si>
   <si>
-    <t>CDC ILI definition (does not address coronavirus)</t>
-  </si>
-  <si>
-    <t>Asthma-related visits</t>
-  </si>
-  <si>
     <t>[Review scale - LOW.]</t>
   </si>
   <si>
@@ -183,18 +165,6 @@
   </si>
   <si>
     <t>ReviewerName</t>
-  </si>
-  <si>
-    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
-  </si>
-  <si>
-    <t>Washington State</t>
-  </si>
-  <si>
-    <t>Washington State Department of Health</t>
-  </si>
-  <si>
-    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=wa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily</t>
   </si>
   <si>
     <t>SampleMetric</t>
@@ -936,10 +906,31 @@
     <t>AgeGroup</t>
   </si>
   <si>
+    <t>Tyler Bonnell</t>
+  </si>
+  <si>
+    <t>[This list contains a common set of fields from the data details results that may be helpful in evaluating the results from a syndrome definition. To add additional fields, consult the "ESSENCE API and Data Details" tab of the NSSP Data Dictionary to use the correct API syntax.]</t>
+  </si>
+  <si>
+    <t>[What fields does this query apply to? Copy and paste from the SelectFields tab or enter manually. Must use API syntax, refer to Data Dictionary as needed.]</t>
+  </si>
+  <si>
+    <t>sara.chronister@doh.wa.gov</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>Washington State Department of Health</t>
+  </si>
+  <si>
     <t>Air Quality-related Respiratory Illness v1</t>
   </si>
   <si>
     <t>AIRQUAL</t>
+  </si>
+  <si>
+    <t>ChiefComplaintUpdates, DischargeDiagnosis</t>
   </si>
   <si>
     <t xml:space="preserve">To identify emergency department and ambulatory care visits for respiratory illnesses associated with poor air quality. Definition includes chief complaint terms and diagnosis codes for acute bronchitis, emphysema, chronic obstructive airway disease, chronic obstructive lung disease, chronic obstructive pulmonary disease,  asthma, bronchasthma, reactive airway disease, acute respiratory distress syndrome, difficulty breathing, chest tightness, dyspnea, shortness of breath and wheezing. Using this query in combination with air quality trends may further assist with surveillance efforts. Developed by the NSSP Community of Practice in collaboration with Council of State and Territorial Epidemiologists in collaboration and the National Center for Environmental Health.
@@ -952,22 +943,31 @@
     <t>https://essence2.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?datasource=va_hosp&amp;startDate=12May2024&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=13May2024&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=air%20quality-related%20respiratory%20illness%20v1&amp;geographySystem=hospital&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
   </si>
   <si>
-    <t>sara.chronister@doh.wa.gov</t>
-  </si>
-  <si>
-    <t>Tyler Bonnell</t>
-  </si>
-  <si>
-    <t>ChiefComplaintUpdates, DischargeDiagnosis</t>
+    <t>ILI</t>
   </si>
   <si>
     <t>ChiefComplaintUpdates, DischargeDiagnosis, Admit_Reason_Combo</t>
   </si>
   <si>
-    <t>[This list contains a common set of fields from the data details results that may be helpful in evaluating the results from a syndrome definition. To add additional fields, consult the "ESSENCE API and Data Details" tab of the NSSP Data Dictionary to use the correct API syntax.]</t>
-  </si>
-  <si>
-    <t>[What fields does this query apply to? Copy and paste from the SelectFields tab or enter manually. Must use API syntax, refer to Data Dictionary as needed.]</t>
+    <t>CDC ILI definition (does not address coronavirus)</t>
+  </si>
+  <si>
+    <t>(,^fever^,andnot,^denies fev^,andnot,^shot^,andnot,^afeb^,andnot,^no fev^,andnot,^no temp^,or,^chill^,or,^pyrexia^,or,^ febrile^,or,^high temp^,or,^elevated temp^,andnot,^denies any elevated temp^,andnot,^no elevated temp^,or,^feeling hot^,or,^feels hot^,or,^fvr^,andnot,^denies fvr^,andnot,^no fvr^,),and,(,^cough^,andnot,^denies cough^,or,^sore ^th[o|r][a|o][a|r]t^,or,^soreth[o|r][a|o][a|r]t^,or,^strep^,or,^pharyn^,or,^upper resp^,),or,(,^[;/ ]J09^,or,^[;/ ]J10^,or,^[;/ ]J11^,or,^[;/ ]487.[018];^,or,^[;/ ]487[018];^,or,^[;/ ]487.[018],or,^[;/ ]487[018],or,^[;/ ]488.[018][19];^,or,^[;/ ]488[018][19];^,or,^[;/ ]488.[018][19],or,^[;/ ]488[018][19],or,^442696006^,or,^442438000^,or,^6142004^,or,^195878008^,or,^influenza^,andnot,^vaccin^,andnot,^shot^,andnot,^immunizat^,or,^ flu ^,andnot,^shot^,andnot,^stomach^,andnot,^vaccin^,andnot,^immuniza^,or,^flu like^,or,^flulike^,or,^flu symptom^,),andnot,^[;/ ]A08.4^,andnot,^[;/ ]A084^</t>
+  </si>
+  <si>
+    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?geography=wa&amp;datasource=va_hosp&amp;startDate=19Oct2023&amp;medicalGroupingSystem=essencesyndromes&amp;userId=4714&amp;endDate=20Oct2023&amp;percentParam=noPercent&amp;hospFacilityType=emergency%20care&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20influenza%20dd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily&amp;hasBeenE=1&amp;refValues=true</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Asthma-related visits</t>
+  </si>
+  <si>
+    <t>(^asthma^,or,^[;/ ]asma^,or,asma^,or,^asthama^,or,^asthma^,or,^asthmia^,or,^bronchospasm^,or,(,(,(,^Airway^,or,^Disease^,),AND,^Reactive),or,(,^Airway^,AND,^Disease^,),),or,^J45^,or,^[;/ ]281239006^,or,^[;/ ]195967001^,or,^[;/ ]708038006^,or,^[;/ ]405944004^,or,^[;/ ]708090002^,or,^[;/ ]56018004^,or,^[;/ ]304527002^,or,^[;/ ]1751000119100^,or,^[;/ ]401000119107^,or,^[;/ ]426979002^,or,^[;/ ]409663006^,or,^[;/ ]266364000^,or,^[;/ ]31387002^,or,^[;/ ]389145006^,or,^[;/ ]442025000^,or,^[;/ ]708093000^,or,^[;/ ]135171000119106^,or,^[;/ ]99031000119107^,or,^[;/ ]135181000119109^,or,^[;/ ]425969006^,or,^[;/ ]370218001^,or,^[;/ ]57546000^,or,^[;/ ]312453004^,or,^[;/ ]707446004^,or,^[;/ ]427295004^,or,^[;/ ]370219009^,or,^[;/ ]233678006^,or,^[;/ ]195949008^,or,^[;/ ]707447008^,or,^[;/ ]707445000^,or,^[;/ ]233683003^,or,^[;/ ]708094006^,or,^[;/ ]55570000^,or,^[;/ ]426656000^,or,^[;/ ]707980005^,or,^[;/ ]390798007^,or,^[;/ ]5281000124103^,or,^[;/ ]370221004^,),ANDNOT,^not asthma^</t>
+  </si>
+  <si>
+    <t>https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=wa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1065,9 +1065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1082,12 +1079,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1126,6 +1117,27 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,9 +1179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1207,7 +1219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1313,7 +1325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1455,7 +1467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1468,91 +1480,94 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>60</v>
+      <c r="G2" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="3">
         <v>45231</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>45291</v>
       </c>
-      <c r="G3" s="6" t="b">
+      <c r="G3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{63B3C350-1DFE-420E-9746-FB2368115F58}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1572,70 +1587,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>95</v>
+      <c r="A1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="A2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>93</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,10 +1658,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,10 +1669,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,10 +1680,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,314 +1691,314 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>55</v>
+      <c r="A13" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>56</v>
+      <c r="A14" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>57</v>
+      <c r="A15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
         <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,13 +2006,13 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,41 +2020,41 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
         <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2076,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,117 +2089,117 @@
     <col min="7" max="7" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2193,6 +2208,7 @@
     <hyperlink ref="G5" r:id="rId2" display="https://essence.syndromicsurveillance.org/nssp_essence/api/dataDetails/csv?endDate=20Jul2021&amp;geography=wa&amp;percentParam=noPercent&amp;datasource=va_hosp&amp;startDate=21Apr2021&amp;medicalGroupingSystem=essencesyndromes&amp;userId=1555&amp;aqtTarget=DataDetails&amp;ccddCategory=cdc%20asthma%20ccdd%20v1&amp;geographySystem=hospitalstate&amp;detector=probrepswitch&amp;timeResolution=daily" xr:uid="{FC030A72-CD8A-4657-8879-0E4A6B2887CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2202,122 +2218,122 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16" style="5" customWidth="1"/>
-    <col min="10" max="10" width="103.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16" style="4" customWidth="1"/>
+    <col min="10" max="10" width="103.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="20" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6">
         <v>100</v>
       </c>
-      <c r="F3" s="5" t="b">
+      <c r="F3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="B4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
